--- a/Documentacion/Negocios/Datos Financieros.xlsx
+++ b/Documentacion/Negocios/Datos Financieros.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Seminario de Aplicación Profesional - Trabajo Final de Ingeniería\Negocios\Tutorial Qlikview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmilianoAgustin\Documents\juego-sap-tfi\Documentacion\Negocios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8505" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8505" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="5" r:id="rId1"/>
@@ -1422,7 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -1627,79 +1627,79 @@
         <v>82</v>
       </c>
       <c r="B5" s="2">
-        <f>+SUM(B4:B4)</f>
+        <f t="shared" ref="B5:T5" si="0">+SUM(B4:B4)</f>
         <v>33354.239999999998</v>
       </c>
       <c r="C5" s="2">
-        <f>+SUM(C4:C4)</f>
+        <f t="shared" si="0"/>
         <v>33354.239999999998</v>
       </c>
       <c r="D5" s="2">
-        <f>+SUM(D4:D4)</f>
+        <f t="shared" si="0"/>
         <v>33354.239999999998</v>
       </c>
       <c r="E5" s="2">
-        <f>+SUM(E4:E4)</f>
+        <f t="shared" si="0"/>
         <v>33354.239999999998</v>
       </c>
       <c r="F5" s="2">
-        <f>+SUM(F4:F4)</f>
+        <f t="shared" si="0"/>
         <v>33354.239999999998</v>
       </c>
       <c r="G5" s="2">
-        <f>+SUM(G4:G4)</f>
+        <f t="shared" si="0"/>
         <v>33354.239999999998</v>
       </c>
       <c r="H5" s="2">
-        <f>+SUM(H4:H4)</f>
+        <f t="shared" si="0"/>
         <v>33354.239999999998</v>
       </c>
       <c r="I5" s="2">
-        <f>+SUM(I4:I4)</f>
+        <f t="shared" si="0"/>
         <v>33354.239999999998</v>
       </c>
       <c r="J5" s="2">
-        <f>+SUM(J4:J4)</f>
+        <f t="shared" si="0"/>
         <v>33354.239999999998</v>
       </c>
       <c r="K5" s="2">
-        <f>+SUM(K4:K4)</f>
+        <f t="shared" si="0"/>
         <v>33354.239999999998</v>
       </c>
       <c r="L5" s="2">
-        <f>+SUM(L4:L4)</f>
+        <f t="shared" si="0"/>
         <v>33354.239999999998</v>
       </c>
       <c r="M5" s="2">
-        <f>+SUM(M4:M4)</f>
+        <f t="shared" si="0"/>
         <v>33354.239999999998</v>
       </c>
       <c r="N5" s="2">
-        <f>+SUM(N4:N4)</f>
+        <f t="shared" si="0"/>
         <v>11104.766</v>
       </c>
       <c r="O5" s="2">
-        <f>+SUM(O4:O4)</f>
+        <f t="shared" si="0"/>
         <v>11104.766</v>
       </c>
       <c r="P5" s="2">
-        <f>+SUM(P4:P4)</f>
+        <f t="shared" si="0"/>
         <v>11104.766</v>
       </c>
       <c r="Q5" s="2">
-        <f>+SUM(Q4:Q4)</f>
+        <f t="shared" si="0"/>
         <v>11104.766</v>
       </c>
       <c r="R5" s="2">
-        <f>+SUM(R4:R4)</f>
+        <f t="shared" si="0"/>
         <v>11104.766</v>
       </c>
       <c r="S5" s="2">
-        <f>+SUM(S4:S4)</f>
+        <f t="shared" si="0"/>
         <v>11104.766</v>
       </c>
       <c r="T5" s="2">
-        <f>+SUM(T4:T4)</f>
+        <f t="shared" si="0"/>
         <v>11104.766</v>
       </c>
       <c r="U5" s="2"/>
@@ -1810,79 +1810,79 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <f>+(B4*0.11)+(B4*0.03)</f>
+        <f t="shared" ref="B9:T9" si="1">+(B4*0.11)+(B4*0.03)</f>
         <v>4669.5936000000002</v>
       </c>
       <c r="C9">
-        <f>+(C4*0.11)+(C4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="D9">
-        <f>+(D4*0.11)+(D4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="E9">
-        <f>+(E4*0.11)+(E4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="F9">
-        <f>+(F4*0.11)+(F4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="G9">
-        <f>+(G4*0.11)+(G4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="H9" s="11">
-        <f>+(H4*0.11)+(H4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="I9" s="11">
-        <f>+(I4*0.11)+(I4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="J9" s="11">
-        <f>+(J4*0.11)+(J4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="K9" s="11">
-        <f>+(K4*0.11)+(K4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="L9" s="11">
-        <f>+(L4*0.11)+(L4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="M9" s="11">
-        <f>+(M4*0.11)+(M4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="N9" s="9">
-        <f>+(N4*0.11)+(N4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>1554.6672399999998</v>
       </c>
       <c r="O9" s="9">
-        <f>+(O4*0.11)+(O4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>1554.6672399999998</v>
       </c>
       <c r="P9" s="9">
-        <f>+(P4*0.11)+(P4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>1554.6672399999998</v>
       </c>
       <c r="Q9" s="9">
-        <f>+(Q4*0.11)+(Q4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>1554.6672399999998</v>
       </c>
       <c r="R9" s="9">
-        <f>+(R4*0.11)+(R4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>1554.6672399999998</v>
       </c>
       <c r="S9" s="9">
-        <f>+(S4*0.11)+(S4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>1554.6672399999998</v>
       </c>
       <c r="T9" s="13">
-        <f>+(T4*0.11)+(T4*0.03)</f>
+        <f t="shared" si="1"/>
         <v>1554.6672399999998</v>
       </c>
       <c r="Z9" s="22"/>
@@ -1903,79 +1903,79 @@
         <v>81</v>
       </c>
       <c r="B10" s="2">
-        <f>+SUM(B9:B9)</f>
+        <f t="shared" ref="B10:T10" si="2">+SUM(B9:B9)</f>
         <v>4669.5936000000002</v>
       </c>
       <c r="C10" s="2">
-        <f>+SUM(C9:C9)</f>
+        <f t="shared" si="2"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="D10" s="2">
-        <f>+SUM(D9:D9)</f>
+        <f t="shared" si="2"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="E10" s="2">
-        <f>+SUM(E9:E9)</f>
+        <f t="shared" si="2"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="F10" s="2">
-        <f>+SUM(F9:F9)</f>
+        <f t="shared" si="2"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="G10" s="2">
-        <f>+SUM(G9:G9)</f>
+        <f t="shared" si="2"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="H10" s="2">
-        <f>+SUM(H9:H9)</f>
+        <f t="shared" si="2"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="I10" s="2">
-        <f>+SUM(I9:I9)</f>
+        <f t="shared" si="2"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="J10" s="2">
-        <f>+SUM(J9:J9)</f>
+        <f t="shared" si="2"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="K10" s="2">
-        <f>+SUM(K9:K9)</f>
+        <f t="shared" si="2"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="L10" s="2">
-        <f>+SUM(L9:L9)</f>
+        <f t="shared" si="2"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="M10" s="2">
-        <f>+SUM(M9:M9)</f>
+        <f t="shared" si="2"/>
         <v>4669.5936000000002</v>
       </c>
       <c r="N10" s="2">
-        <f>+SUM(N9:N9)</f>
+        <f t="shared" si="2"/>
         <v>1554.6672399999998</v>
       </c>
       <c r="O10" s="2">
-        <f>+SUM(O9:O9)</f>
+        <f t="shared" si="2"/>
         <v>1554.6672399999998</v>
       </c>
       <c r="P10" s="2">
-        <f>+SUM(P9:P9)</f>
+        <f t="shared" si="2"/>
         <v>1554.6672399999998</v>
       </c>
       <c r="Q10" s="2">
-        <f>+SUM(Q9:Q9)</f>
+        <f t="shared" si="2"/>
         <v>1554.6672399999998</v>
       </c>
       <c r="R10" s="2">
-        <f>+SUM(R9:R9)</f>
+        <f t="shared" si="2"/>
         <v>1554.6672399999998</v>
       </c>
       <c r="S10" s="2">
-        <f>+SUM(S9:S9)</f>
+        <f t="shared" si="2"/>
         <v>1554.6672399999998</v>
       </c>
       <c r="T10" s="2">
-        <f>+SUM(T9:T9)</f>
+        <f t="shared" si="2"/>
         <v>1554.6672399999998</v>
       </c>
       <c r="U10" s="2"/>
@@ -2001,79 +2001,79 @@
         <v>83</v>
       </c>
       <c r="B13">
-        <f>+B10+B5</f>
+        <f t="shared" ref="B13:T13" si="3">+B10+B5</f>
         <v>38023.833599999998</v>
       </c>
       <c r="C13">
-        <f>+C10+C5</f>
+        <f t="shared" si="3"/>
         <v>38023.833599999998</v>
       </c>
       <c r="D13">
-        <f>+D10+D5</f>
+        <f t="shared" si="3"/>
         <v>38023.833599999998</v>
       </c>
       <c r="E13">
-        <f>+E10+E5</f>
+        <f t="shared" si="3"/>
         <v>38023.833599999998</v>
       </c>
       <c r="F13">
-        <f>+F10+F5</f>
+        <f t="shared" si="3"/>
         <v>38023.833599999998</v>
       </c>
       <c r="G13">
-        <f>+G10+G5</f>
+        <f t="shared" si="3"/>
         <v>38023.833599999998</v>
       </c>
       <c r="H13">
-        <f>+H10+H5</f>
+        <f t="shared" si="3"/>
         <v>38023.833599999998</v>
       </c>
       <c r="I13">
-        <f>+I10+I5</f>
+        <f t="shared" si="3"/>
         <v>38023.833599999998</v>
       </c>
       <c r="J13">
-        <f>+J10+J5</f>
+        <f t="shared" si="3"/>
         <v>38023.833599999998</v>
       </c>
       <c r="K13">
-        <f>+K10+K5</f>
+        <f t="shared" si="3"/>
         <v>38023.833599999998</v>
       </c>
       <c r="L13">
-        <f>+L10+L5</f>
+        <f t="shared" si="3"/>
         <v>38023.833599999998</v>
       </c>
       <c r="M13">
-        <f>+M10+M5</f>
+        <f t="shared" si="3"/>
         <v>38023.833599999998</v>
       </c>
       <c r="N13">
-        <f>+N10+N5</f>
+        <f t="shared" si="3"/>
         <v>12659.433239999998</v>
       </c>
       <c r="O13">
-        <f>+O10+O5</f>
+        <f t="shared" si="3"/>
         <v>12659.433239999998</v>
       </c>
       <c r="P13">
-        <f>+P10+P5</f>
+        <f t="shared" si="3"/>
         <v>12659.433239999998</v>
       </c>
       <c r="Q13">
-        <f>+Q10+Q5</f>
+        <f t="shared" si="3"/>
         <v>12659.433239999998</v>
       </c>
       <c r="R13">
-        <f>+R10+R5</f>
+        <f t="shared" si="3"/>
         <v>12659.433239999998</v>
       </c>
       <c r="S13">
-        <f>+S10+S5</f>
+        <f t="shared" si="3"/>
         <v>12659.433239999998</v>
       </c>
       <c r="T13">
-        <f>+T10+T5</f>
+        <f t="shared" si="3"/>
         <v>12659.433239999998</v>
       </c>
       <c r="U13"/>
@@ -2093,7 +2093,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,9 +2552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2734,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,7 +2762,9 @@
       <c r="A2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -2778,28 +2778,24 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="5">
-        <v>352500</v>
+        <v>260000</v>
       </c>
       <c r="F3" s="5">
-        <v>385500</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>454300</v>
+        <v>25000</v>
       </c>
       <c r="H3" s="5">
-        <v>591900</v>
+        <v>321050</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="3">
-        <v>128200</v>
-      </c>
-      <c r="D4" s="3">
-        <v>164900</v>
-      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="5">
         <f>+SUM(Egresos!H2:H4)</f>
         <v>90856.599440000005</v>
@@ -2821,29 +2817,23 @@
       <c r="A5" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="3">
-        <f>-C4</f>
-        <v>-128200</v>
-      </c>
-      <c r="D5" s="3">
-        <f>-D4</f>
-        <v>-164900</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="6">
         <f>+E3-E4</f>
-        <v>261643.40055999998</v>
+        <v>169143.40055999998</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ref="F5:H5" si="0">+F3-F4</f>
-        <v>330340.56676000002</v>
+        <v>-55159.433240000006</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>439300</v>
+        <v>10000</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="0"/>
-        <v>589700</v>
+        <v>318850</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2853,19 +2843,19 @@
       <c r="C6" s="3"/>
       <c r="E6">
         <f>+E5/(1+0.15)</f>
-        <v>227516.00048695653</v>
+        <v>147081.21787826085</v>
       </c>
       <c r="F6">
         <f>+F5/POWER(1+0.15,2)</f>
-        <v>249784.92760680534</v>
+        <v>-41708.456136105873</v>
       </c>
       <c r="G6">
         <f>+G5/POWER(1+0.15,3)</f>
-        <v>288846.88090737251</v>
+        <v>6575.1623243198837</v>
       </c>
       <c r="H6">
         <f>+H5/POWER(1+0.15,4)</f>
-        <v>337162.8889262118</v>
+        <v>182303.52235733869</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -2896,16 +2886,16 @@
       </c>
       <c r="B10" s="3">
         <f>+SUM(E6:H6)-B2</f>
-        <v>1103310.6979273462</v>
+        <v>294250.44642381358</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="29" t="e">
+      <c r="B11" s="29">
         <f>+B10/B2</f>
-        <v>#DIV/0!</v>
+        <v>294250.44642381358</v>
       </c>
     </row>
   </sheetData>
